--- a/Tableau de Bord.xlsx
+++ b/Tableau de Bord.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\workspace\projetJEE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Bureau\PRO\ISN\Java JEE\workspace\mairie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="31">
   <si>
     <t>Tâches</t>
   </si>
@@ -109,6 +110,15 @@
   </si>
   <si>
     <t>Dev DAO ( Possibilitées via BDD )</t>
+  </si>
+  <si>
+    <t>Redaction DSL</t>
+  </si>
+  <si>
+    <t>Redaction PVL</t>
+  </si>
+  <si>
+    <t>Redaction DCP</t>
   </si>
 </sst>
 </file>
@@ -165,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -240,23 +250,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -292,23 +285,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,21 +440,21 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="A1:I17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>42481</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -501,7 +477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -526,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -551,7 +527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -576,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -601,7 +577,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -626,7 +602,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -650,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -674,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -698,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -722,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -746,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -757,12 +733,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C3:C13)</f>
         <v>35</v>
@@ -789,23 +765,549 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>42481</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G5" si="0">C3:C6-F3:F6</f>
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H5" si="1">E3-G3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>C6:C9-F6:F9</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>E6-G6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G15" si="2">C7:C10-F7:F10</f>
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H15" si="3">E7-G7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1.5</v>
+      </c>
+      <c r="E9">
+        <v>1.5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <f>C16:C23-F16:F23</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H21" si="4">E16-G16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G18" si="5">C17:C20-F17:F20</f>
+        <v>-1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>0.25</v>
+      </c>
+      <c r="E18">
+        <v>0.25</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>0.75</v>
+      </c>
+      <c r="E19">
+        <v>0.75</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>C19:C22-F19:F22</f>
+        <v>0.75</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>0.75</v>
+      </c>
+      <c r="E20">
+        <v>0.75</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>C20:C23-F20:F23</f>
+        <v>0.75</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <f>C21:C24-F21:F24</f>
+        <v>-3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>SUM(C6:C21)</f>
+        <v>39.75</v>
+      </c>
+      <c r="E23">
+        <f xml:space="preserve"> SUM(E6:E15)</f>
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f xml:space="preserve"> SUM(H6:H15)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>42481</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -828,417 +1330,483 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <f>C3:C6-F3:F6</f>
-        <v>1</v>
+        <f t="shared" ref="G3:G5" si="0">C3:C6-F3:F6</f>
+        <v>6</v>
       </c>
       <c r="H3">
-        <f>E3-G3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H3:H5" si="1">E3-G3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G12" si="0">C4:C7-F4:F7</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H12" si="1">E4-G4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>C6:C9-F6:F9</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>E6-G6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G15" si="2">C7:C10-F7:F10</f>
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H21" si="3">E7-G7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
         <v>1.5</v>
       </c>
-      <c r="E6">
+      <c r="E9">
         <v>1.5</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="E7">
-        <v>0.5</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
         <v>4</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>4</v>
       </c>
-      <c r="G13">
-        <f>C13:C20-F13:F20</f>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ref="H13:H18" si="2">E13-G13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="G16">
+        <f>C16:C23-F16:F23</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="C14">
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>5</v>
       </c>
-      <c r="G14">
-        <f t="shared" ref="G13:G18" si="3">C14:C17-F14:F17</f>
+      <c r="G17">
+        <f t="shared" ref="G17:G18" si="4">C17:C20-F17:F20</f>
         <v>-1</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>0.25</v>
       </c>
-      <c r="E15">
+      <c r="E18">
         <v>0.25</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>0.75</v>
       </c>
-      <c r="E16">
+      <c r="E19">
         <v>0.75</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>C19:C22-F19:F22</f>
         <v>0.75</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>0.75</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <v>0.75</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>C20:C23-F20:F23</f>
         <v>0.75</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>5</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
+      <c r="G21">
+        <f>C21:C24-F21:F24</f>
         <v>-3</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
+      <c r="H21">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C20">
-        <f>SUM(C3:C17)</f>
-        <v>37.75</v>
-      </c>
-      <c r="E20">
-        <f xml:space="preserve"> SUM(E3:E12)</f>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>SUM(C6:C21)</f>
+        <v>39.75</v>
+      </c>
+      <c r="E23">
+        <f xml:space="preserve"> SUM(E6:E15)</f>
         <v>5</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f xml:space="preserve"> SUM(H3:H12)</f>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f xml:space="preserve"> SUM(H6:H15)</f>
         <v>4</v>
       </c>
     </row>

--- a/Tableau de Bord.xlsx
+++ b/Tableau de Bord.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="31">
   <si>
     <t>Tâches</t>
   </si>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,6 +1334,9 @@
       <c r="A3" t="s">
         <v>28</v>
       </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
       <c r="C3">
         <v>6</v>
       </c>
@@ -1355,6 +1358,9 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2</v>

--- a/Tableau de Bord.xlsx
+++ b/Tableau de Bord.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="31">
   <si>
     <t>Tâches</t>
   </si>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,282 +479,407 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <f>C3:C6-F3:F6</f>
-        <v>1</v>
+        <f>C3:C7-F3:F7</f>
+        <v>2</v>
       </c>
       <c r="H3">
-        <f>E3-G3</f>
-        <v>0</v>
+        <f t="shared" ref="H3:H7" si="0">E3-G3</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G7" si="0">C4:C7-F4:F7</f>
-        <v>0.5</v>
+        <f>C4:C8-F4:F8</f>
+        <v>1</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H12" si="1">E4-G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
+        <f>C5:C9-F5:F9</f>
+        <v>2</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
+        <f>C6:C10-F6:F10</f>
+        <v>4</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
+        <f>C7:C11-F7:F11</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <f>C8:C11-F8:F11</f>
+        <v>1</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f>E8-G8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <f t="shared" ref="G9:G12" si="1">C9:C12-F9:F12</f>
+        <v>0.5</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H9:H17" si="2">E9-G9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <f>SUM(C3:C13)</f>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f>SUM(C8:C18)</f>
         <v>35</v>
       </c>
-      <c r="E16">
-        <f xml:space="preserve"> SUM(E3:E12)</f>
+      <c r="E21">
+        <f xml:space="preserve"> SUM(E8:E17)</f>
         <v>3.25</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f>E16-G16</f>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>E21-G21</f>
         <v>3.25</v>
       </c>
     </row>
@@ -765,10 +890,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,43 +933,49 @@
       <c r="A3" t="s">
         <v>28</v>
       </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
       <c r="C3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G5" si="0">C3:C6-F3:F6</f>
-        <v>6</v>
+        <f>C3:C7-F3:F7</f>
+        <v>2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H5" si="1">E3-G3</f>
-        <v>0</v>
+        <f t="shared" ref="H3:H7" si="0">E3-G3</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
+        <f>C4:C8-F4:F8</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -852,6 +983,9 @@
       <c r="A5" t="s">
         <v>30</v>
       </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
       <c r="C5">
         <v>2</v>
       </c>
@@ -862,425 +996,475 @@
         <v>0</v>
       </c>
       <c r="G5">
+        <f>C5:C9-F5:F9</f>
+        <v>2</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>C6:C10-F6:F10</f>
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>C7:C11-F7:F11</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>C8:C11-F8:F11</f>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f>E8-G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G17" si="1">C9:C12-F9:F12</f>
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H17" si="2">E9-G9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f>C6:C9-F6:F9</f>
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <f>E6-G6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="E7">
-        <v>0.5</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ref="G7:G15" si="2">C7:C10-F7:F10</f>
-        <v>0.5</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H15" si="3">E7-G7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="E8">
-        <v>0.5</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="H8">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <f>C18:C25-F18:F25</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H23" si="3">E18-G18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G20" si="4">C19:C22-F19:F22</f>
+        <v>-1</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1.5</v>
-      </c>
-      <c r="E9">
-        <v>1.5</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>0.25</v>
+      </c>
+      <c r="E20">
+        <v>0.25</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>0.5</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="H10">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>0.75</v>
+      </c>
+      <c r="E21">
+        <v>0.75</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>C21:C24-F21:F24</f>
+        <v>0.75</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>0.75</v>
+      </c>
+      <c r="E22">
+        <v>0.75</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>C22:C25-F22:F25</f>
+        <v>0.75</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>5</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="H12">
+      <c r="G23">
+        <f>C23:C26-F23:F26</f>
+        <v>-3</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f>SUM(C8:C23)</f>
+        <v>39.75</v>
+      </c>
+      <c r="E25">
+        <f xml:space="preserve"> SUM(E8:E17)</f>
         <v>5</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <f>C16:C23-F16:F23</f>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ref="H16:H21" si="4">E16-G16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ref="G17:G18" si="5">C17:C20-F17:F20</f>
-        <v>-1</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>0.25</v>
-      </c>
-      <c r="E18">
-        <v>0.25</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
-        <v>0.75</v>
-      </c>
-      <c r="E19">
-        <v>0.75</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f>C19:C22-F19:F22</f>
-        <v>0.75</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>0.75</v>
-      </c>
-      <c r="E20">
-        <v>0.75</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f>C20:C23-F20:F23</f>
-        <v>0.75</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21">
-        <f>C21:C24-F21:F24</f>
-        <v>-3</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <f>SUM(C6:C21)</f>
-        <v>39.75</v>
-      </c>
-      <c r="E23">
-        <f xml:space="preserve"> SUM(E6:E15)</f>
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f xml:space="preserve"> SUM(H6:H15)</f>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f xml:space="preserve"> SUM(H8:H17)</f>
         <v>4</v>
       </c>
     </row>
@@ -1291,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,21 +1522,21 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G5" si="0">C3:C6-F3:F6</f>
-        <v>6</v>
+        <f>C3:C8-F3:F8</f>
+        <v>2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H5" si="1">E3-G3</f>
-        <v>0</v>
+        <f t="shared" ref="H3:H5" si="0">E3-G3</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1363,20 +1547,20 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
+        <f>C4:C9-F4:F9</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1384,6 +1568,9 @@
       <c r="A5" t="s">
         <v>30</v>
       </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
       <c r="C5">
         <v>2</v>
       </c>
@@ -1394,117 +1581,117 @@
         <v>0</v>
       </c>
       <c r="G5">
+        <f>C5:C10-F5:F10</f>
+        <v>2</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <f>C6:C9-F6:F9</f>
-        <v>1</v>
+        <f>C6:C11-F6:F11</f>
+        <v>4</v>
       </c>
       <c r="H6">
-        <f>E6-G6</f>
+        <f t="shared" ref="H6:H7" si="1">E6-G6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G15" si="2">C7:C10-F7:F10</f>
-        <v>0.5</v>
+        <f>C7:C12-F7:F12</f>
+        <v>1</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H21" si="3">E7-G7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f>C8:C11-F8:F11</f>
+        <v>1</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f>E8-G8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f t="shared" ref="G9:G17" si="2">C9:C12-F9:F12</f>
+        <v>0.5</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H9:H23" si="3">E9-G9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1529,23 +1716,23 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
@@ -1554,122 +1741,122 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <f>C16:C23-F16:F23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16">
@@ -1679,10 +1866,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1691,81 +1881,78 @@
         <v>5</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G18" si="4">C17:C20-F17:F20</f>
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <f>C18:C25-F18:F25</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G20" si="4">C19:C22-F19:F22</f>
+        <v>-1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>0.25</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>0.25</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
-        <v>0.75</v>
-      </c>
-      <c r="E19">
-        <v>0.75</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f>C19:C22-F19:F22</f>
-        <v>0.75</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>0.75</v>
-      </c>
-      <c r="E20">
-        <v>0.75</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f>C20:C23-F20:F23</f>
-        <v>0.75</v>
-      </c>
       <c r="H20">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1773,46 +1960,96 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <f>C21:C24-F21:F24</f>
-        <v>-3</v>
+        <v>0.75</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>0.75</v>
+      </c>
+      <c r="E22">
+        <v>0.75</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>C22:C25-F22:F25</f>
+        <v>0.75</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <f>C23:C26-F23:F26</f>
+        <v>-3</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <f>SUM(C6:C21)</f>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f>SUM(C8:C23)</f>
         <v>39.75</v>
       </c>
-      <c r="E23">
-        <f xml:space="preserve"> SUM(E6:E15)</f>
+      <c r="E25">
+        <f xml:space="preserve"> SUM(E8:E17)</f>
         <v>5</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f xml:space="preserve"> SUM(H6:H15)</f>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f xml:space="preserve"> SUM(H8:H17)</f>
         <v>4</v>
       </c>
     </row>
